--- a/Version1/IntegrationPlanning_v1.xlsx
+++ b/Version1/IntegrationPlanning_v1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\GURU_BANK\GURU99_BANK\Version1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IntegrationPlanning!$H$1:$H$100</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -344,7 +339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -603,7 +598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -638,7 +633,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -815,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,75 +827,75 @@
       <selection activeCell="C18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="15.1796875" style="1"/>
-    <col min="5" max="5" width="29.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="15.1796875" style="1"/>
+    <col min="1" max="4" width="15.140625" style="1"/>
+    <col min="5" max="5" width="29.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="15.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>0</v>
@@ -916,7 +911,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="9">
         <v>1</v>
@@ -932,7 +927,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -946,517 +941,517 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="3:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -1476,22 +1471,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="A1:H19"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="15"/>
+    <col min="1" max="1" width="5.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="15"/>
     <col min="3" max="3" width="22" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="15.1796875" style="15"/>
+    <col min="4" max="4" width="24.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="15.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1524,7 @@
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
     </row>
-    <row r="2" spans="1:20" ht="186" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="189" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
@@ -1555,7 +1550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="186" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="189" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -1579,7 +1574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="186" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="189" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
@@ -1605,7 +1600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="124" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
@@ -1629,7 +1624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +1648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>41</v>
       </c>
@@ -1679,7 +1674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="62" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="63" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>46</v>
       </c>
@@ -1703,7 +1698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>49</v>
       </c>
@@ -1727,7 +1722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="63" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>54</v>
       </c>
@@ -1753,7 +1748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>60</v>
       </c>
@@ -1777,7 +1772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>62</v>
       </c>
@@ -1803,7 +1798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>67</v>
       </c>
@@ -1827,7 +1822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>70</v>
       </c>
@@ -1851,7 +1846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>72</v>
       </c>
@@ -1875,7 +1870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
@@ -1901,7 +1896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="63" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>82</v>
       </c>
@@ -1925,7 +1920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>85</v>
       </c>
@@ -1951,7 +1946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>89</v>
       </c>
@@ -1977,87 +1972,87 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="H1:H100"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
